--- a/M326_Sollzeitplan.xlsx
+++ b/M326_Sollzeitplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="97" documentId="8_{5FE66ED6-0EF0-4842-A7FF-ECB476BB3CE7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{9774F50E-BEF9-48DC-A41D-567519942107}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="8_{5FE66ED6-0EF0-4842-A7FF-ECB476BB3CE7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{9C031B8C-CFFD-47C0-BE2A-735C760095F3}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1555,8 +1555,8 @@
   <dimension ref="A1:FM43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="76" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+      <pane ySplit="6" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.75"/>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="F11" s="23">
         <f>F16</f>
-        <v>43720</v>
+        <v>43721</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -4646,12 +4646,12 @@
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="57">
-        <f>DATE(2019,9,12)</f>
-        <v>43720</v>
+        <f>DATE(2019,9,13)</f>
+        <v>43721</v>
       </c>
       <c r="F15" s="57">
         <f>E15</f>
-        <v>43720</v>
+        <v>43721</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14">
@@ -4831,11 +4831,11 @@
       <c r="D16" s="24"/>
       <c r="E16" s="57">
         <f>E15</f>
-        <v>43720</v>
+        <v>43721</v>
       </c>
       <c r="F16" s="57">
         <f>E16</f>
-        <v>43720</v>
+        <v>43721</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14">
@@ -9747,19 +9747,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="EZ4:FF4"/>
-    <mergeCell ref="FG4:FM4"/>
-    <mergeCell ref="DQ4:DW4"/>
-    <mergeCell ref="DX4:ED4"/>
-    <mergeCell ref="EE4:EK4"/>
-    <mergeCell ref="EL4:ER4"/>
-    <mergeCell ref="ES4:EY4"/>
-    <mergeCell ref="CV4:DB4"/>
-    <mergeCell ref="DC4:DI4"/>
-    <mergeCell ref="DJ4:DP4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="CO4:CU4"/>
     <mergeCell ref="BM4:BS4"/>
     <mergeCell ref="BT4:BZ4"/>
     <mergeCell ref="C3:D3"/>
@@ -9774,6 +9761,19 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
+    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="EZ4:FF4"/>
+    <mergeCell ref="FG4:FM4"/>
+    <mergeCell ref="DQ4:DW4"/>
+    <mergeCell ref="DX4:ED4"/>
+    <mergeCell ref="EE4:EK4"/>
+    <mergeCell ref="EL4:ER4"/>
+    <mergeCell ref="ES4:EY4"/>
   </mergeCells>
   <conditionalFormatting sqref="D21 D19 D7:D17">
     <cfRule type="dataBar" priority="25">
@@ -9895,7 +9895,7 @@
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="57" fitToHeight="0" orientation="landscape" r:id="rId3"/>
+  <pageSetup scale="25" fitToHeight="0" orientation="landscape" r:id="rId3"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
